--- a/output/comparison/average med_low RMSE.xlsx
+++ b/output/comparison/average med_low RMSE.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
     <t>Skill</t>
-  </si>
-  <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Category</t>
   </si>
   <si>
     <t>overall_2022</t>
@@ -435,13 +435,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.2847007285632026</v>
+        <v>0.1038047699034157</v>
       </c>
       <c r="C2">
-        <v>0.1242167084224245</v>
+        <v>0.1537470655338037</v>
       </c>
       <c r="D2">
-        <v>0.06776378237688997</v>
+        <v>0.2703751063370878</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.2703751063370878</v>
+        <v>0.06776378237688997</v>
       </c>
       <c r="C3">
-        <v>0.1537470655338037</v>
+        <v>0.1242167084224245</v>
       </c>
       <c r="D3">
-        <v>0.1038047699034157</v>
+        <v>0.2847007285632026</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1205808504579181</v>
+        <v>0.0670257375024414</v>
       </c>
       <c r="C4">
         <v>0.1068537999479833</v>
       </c>
       <c r="D4">
-        <v>0.0670257375024414</v>
+        <v>0.1205808504579181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.09146534833856095</v>
+        <v>0.1242065937517409</v>
       </c>
       <c r="C5">
         <v>0.1042324013116946</v>
       </c>
       <c r="D5">
-        <v>0.1242065937517409</v>
+        <v>0.09146534833856095</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0873917305253674</v>
+        <v>0.08538504721814412</v>
       </c>
       <c r="C6">
         <v>0.1017760591569299</v>
       </c>
       <c r="D6">
-        <v>0.08538504721814412</v>
+        <v>0.0873917305253674</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>0.07520447180982315</v>
+      </c>
+      <c r="C7">
+        <v>0.094010565496587</v>
+      </c>
+      <c r="D7">
         <v>0.06564860587884769</v>
-      </c>
-      <c r="C7">
-        <v>0.1047348413927434</v>
-      </c>
-      <c r="D7">
-        <v>0.05979648551464158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <v>9</v>
       </c>
       <c r="B8">
+        <v>0.08837940948426325</v>
+      </c>
+      <c r="C8">
+        <v>0.1182537103415726</v>
+      </c>
+      <c r="D8">
         <v>0.07477892525770144</v>
-      </c>
-      <c r="C8">
-        <v>0.11051299666581</v>
-      </c>
-      <c r="D8">
-        <v>0.1011976164569758</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <v>10</v>
       </c>
       <c r="B9">
+        <v>0.1260654491647744</v>
+      </c>
+      <c r="C9">
+        <v>0.1342804156449766</v>
+      </c>
+      <c r="D9">
         <v>0.1031416588101587</v>
-      </c>
-      <c r="C9">
-        <v>0.1302748590561995</v>
-      </c>
-      <c r="D9">
-        <v>0.1457454236780478</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <v>11</v>
       </c>
       <c r="B10">
+        <v>0.07782972081596178</v>
+      </c>
+      <c r="C10">
+        <v>0.1158647799152184</v>
+      </c>
+      <c r="D10">
         <v>0.1041429534670481</v>
-      </c>
-      <c r="C10">
-        <v>0.1095938190683</v>
-      </c>
-      <c r="D10">
-        <v>0.07538445653760928</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <v>12</v>
       </c>
       <c r="B11">
+        <v>0.1008153758136005</v>
+      </c>
+      <c r="C11">
+        <v>0.1107839330820082</v>
+      </c>
+      <c r="D11">
         <v>0.1146691957200868</v>
-      </c>
-      <c r="C11">
-        <v>0.1213653063355253</v>
-      </c>
-      <c r="D11">
-        <v>0.1425313788824334</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -575,13 +575,13 @@
         <v>13</v>
       </c>
       <c r="B12">
+        <v>0.07653497343889321</v>
+      </c>
+      <c r="C12">
+        <v>0.08203666549492586</v>
+      </c>
+      <c r="D12">
         <v>0.09580126091908746</v>
-      </c>
-      <c r="C12">
-        <v>0.08615734579137008</v>
-      </c>
-      <c r="D12">
-        <v>0.08191296439390761</v>
       </c>
     </row>
   </sheetData>
